--- a/documents/Published/Circular Gauge/CircularGaugeByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Circular Gauge/CircularGaugeByMAQSoftwareChecklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CB851-86D0-42DB-AD02-5E475EF823D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>S no</t>
   </si>
@@ -429,6 +430,42 @@
     <t xml:space="preserve">1. Range 4 values should be updated from 75-100
 2. Range 4 color should be updated to 'pink'
 </t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Target Value</t>
+  </si>
+  <si>
+    <t>Actual value accept 0 values but negative values</t>
+  </si>
+  <si>
+    <t>Target value accept 0 values but negative values</t>
+  </si>
+  <si>
+    <t>1.Acual Value =0,Target Value=0                                            2.Actual Value=0,Target Value&gt; Actual Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Target Value=0,Target Value&lt; Actual Value    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Visual shows 0%                                                                                                                         2.Visual shows 0%            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Visual shows 100%            </t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
   </si>
 </sst>
 </file>
@@ -520,14 +557,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -540,15 +572,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,6 +614,3707 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2072527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13718AED-5C29-4D71-8523-CD11B30F3354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13706475" y="285751"/>
+          <a:ext cx="2390775" cy="1977276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3020933</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1952626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D614B225-4354-4741-9549-5ED7161F7D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17526000" y="352426"/>
+          <a:ext cx="2487533" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2075695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170D073C-AD24-4DFC-8830-AA458E951E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="285750"/>
+          <a:ext cx="2400300" cy="1980445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2962275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2263445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE2C3AE-6397-4167-BA6A-6D7A0F4AD94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17106900" y="2552700"/>
+          <a:ext cx="2847975" cy="2187245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2914296</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3144DCA8-F2DB-4D63-9B2B-8C8BC03FDCF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13696951" y="2619375"/>
+          <a:ext cx="2428520" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2230024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFB16F7-FE83-4F90-9C09-9AB707DFADCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20459700" y="2524126"/>
+          <a:ext cx="2524125" cy="2182398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2781301</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2197388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866844F4-F282-49CB-BC57-2580BE3C8751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20421601" y="238125"/>
+          <a:ext cx="2533650" cy="2149763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2159096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5670C95-30CF-43AA-87E7-BA9E48C82B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23517225" y="2619376"/>
+          <a:ext cx="2409825" cy="2016220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3165499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2219325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDEDD2C-BD0C-4A1F-A2D4-9DB6182287AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13839826" y="4924425"/>
+          <a:ext cx="2536848" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2914650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2286628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2195F7F1-CBB7-4576-90C9-6CE9B6CE568B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17230725" y="4972050"/>
+          <a:ext cx="2676525" cy="2181853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2905124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2256469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1465455-8338-411D-84CD-E236E8C878DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20469225" y="4972050"/>
+          <a:ext cx="2609849" cy="2151694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2151819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98D4241-13E3-49E7-9534-20BAA5BA88C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23555325" y="4962525"/>
+          <a:ext cx="2695575" cy="2056569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2244399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41875467-EE18-4620-8F02-08CA9F1D863C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20545425" y="7277100"/>
+          <a:ext cx="2581275" cy="2187249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2929860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2124075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E817AB-C973-4A0E-B7B8-A23B247265B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17440276" y="7305675"/>
+          <a:ext cx="2482184" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2166368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE7D4A1-F1C4-44D7-BB2F-C4AE0595E9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13849350" y="7277100"/>
+          <a:ext cx="2447925" cy="2109218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2867026</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2165050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CFD743-E7B9-44A6-B776-E13EFD7B5FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24479251" y="7267575"/>
+          <a:ext cx="2457450" cy="2117425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3170385</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2228849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE708AB-EC8D-41C3-A84A-7F600C40A03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="9553574"/>
+          <a:ext cx="2513160" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3136343</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2286001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81EC022-0AC7-465B-ADE4-31E39D96EF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17411700" y="9525001"/>
+          <a:ext cx="2717243" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3133725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2301660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF0ECDB-C2FA-4AD2-8C1D-F340B6286655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20907375" y="9534526"/>
+          <a:ext cx="2724150" cy="2234984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2286409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75811F38-A109-4C28-A00E-11B08E850AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24193500" y="9534525"/>
+          <a:ext cx="2905125" cy="2219734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3208226</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2171700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C66D49-56BF-4F0A-9697-B2264A18088A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13820775" y="11877676"/>
+          <a:ext cx="2598626" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3181350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2209038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159FC5CE-DA12-48FB-BC46-6E579A701F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17392650" y="11925300"/>
+          <a:ext cx="2781300" cy="2113788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2171372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1AAF2F-4CC2-4170-AC3F-2DCAE50CFFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21002625" y="11896725"/>
+          <a:ext cx="2543175" cy="2104697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3029353</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2210095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE91789-C980-49E0-9750-CC7BE38A8838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24212550" y="11925300"/>
+          <a:ext cx="2886478" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2219326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FE3B86-3F32-43F0-97CF-4A6415226723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="14135101"/>
+          <a:ext cx="2695575" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2218434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAFAED2-6C0E-4B3F-816E-86A1D5F0AAE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17421225" y="14135100"/>
+          <a:ext cx="2543175" cy="2170809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2109464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638626E7-E773-4719-B8B1-4FD2B3746518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20916900" y="14173200"/>
+          <a:ext cx="2667000" cy="2023739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2838451</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2069592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA058230-C6ED-4563-8746-063BA900F888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24488776" y="14173200"/>
+          <a:ext cx="2419350" cy="1983867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3219343</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2514600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4481FE16-7FE0-4423-B073-AAB5314BC188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20716875" y="16383000"/>
+          <a:ext cx="3000268" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3032399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2457450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763EDE27-0AE0-48E6-9A07-F2429A80CABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24203025" y="16430625"/>
+          <a:ext cx="2899049" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3400426</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2503681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EAF50CC-A2C3-4901-B8F8-1D4D5F85BFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487401" y="16444264"/>
+          <a:ext cx="3124200" cy="2423367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3250915</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2476880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B607A4-3B88-492E-BF2A-5A0CD1F8D5DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="16497300"/>
+          <a:ext cx="3031840" cy="2343530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2360751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E618B38-BF0B-4466-84DB-ABC77A69124F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="19021425"/>
+          <a:ext cx="2790825" cy="2294076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2354288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B87C625-3E76-43CE-9BFA-5C681A1D2369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17325975" y="18983326"/>
+          <a:ext cx="2809875" cy="2325712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3248026</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2310336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F93654-255D-4208-96D2-8B38865433CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20774026" y="19002375"/>
+          <a:ext cx="2971800" cy="2262711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2962275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2337453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6EDAD8-A1BA-45DA-9E43-D36DCEE05A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24298275" y="18992850"/>
+          <a:ext cx="2733675" cy="2299353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3391324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2619726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDD2695-BFB3-438A-8F2A-CAA6A0A86C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="21488400"/>
+          <a:ext cx="3038899" cy="2514951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2531833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA6ED47-3F0B-40FD-A9FC-3C4133723F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17154525" y="21516976"/>
+          <a:ext cx="3152775" cy="2398482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3287195</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2628900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BF5280-1E90-4338-8DC2-05DF764C75CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20745450" y="21431250"/>
+          <a:ext cx="3039545" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3029354</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2514931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D96B7E-F621-4041-BECF-706D04CF223D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24203025" y="21526500"/>
+          <a:ext cx="2896004" cy="2372056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3729766</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2447925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EC1A3C-8C39-43E4-812E-03097284DE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="24222075"/>
+          <a:ext cx="3558316" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3355223</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2305050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D7D9E6-0FE1-46DD-B80C-1FF443159ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17240251" y="24193500"/>
+          <a:ext cx="3107572" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3495676</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2495646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD32485-E0D2-4BF7-B40F-AE2AE7311D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20697826" y="24260175"/>
+          <a:ext cx="3295650" cy="2362296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2432842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD7B9AC-4DD0-41FD-9923-2D2DB135165B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24203025" y="24326850"/>
+          <a:ext cx="2914650" cy="2232817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3705225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2449029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51018E87-9817-446A-9307-32B6DA723842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13430250" y="26898600"/>
+          <a:ext cx="3486150" cy="2401404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3448050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2390350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F8D8A0-2C8A-49D9-BCF3-C866CF296EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17297400" y="26936700"/>
+          <a:ext cx="3381375" cy="2304625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2405918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A522B0-C235-48B0-B2F5-5F4248A82651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21231225" y="26936700"/>
+          <a:ext cx="2895600" cy="2320193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3094918</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F626CE5B-71B5-4B58-8476-CF4CEF6DA979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24374475" y="27041475"/>
+          <a:ext cx="3028243" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2442860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6972A5DC-7BEE-4506-A813-56BB4A5B7ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13573125" y="29413201"/>
+          <a:ext cx="3448050" cy="2376184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3419057</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2295525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F32080-2383-4AD9-BA05-0BE2B7974417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17345025" y="29384625"/>
+          <a:ext cx="3304757" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3533775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2338017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D60B85-508E-4BC1-9257-017277B96698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20831175" y="29422725"/>
+          <a:ext cx="3438525" cy="2261817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3105150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2396190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD849F8-C10C-463B-A690-A0E1CB9DA0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24536400" y="29413201"/>
+          <a:ext cx="2876550" cy="2329514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2380409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D6C0DD-56D2-4BDB-8291-51CFE0D2BBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487401" y="31918275"/>
+          <a:ext cx="3495674" cy="2313734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3438525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2392218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CF5226-D774-45BD-87C9-E4CA02F32F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17306925" y="31937326"/>
+          <a:ext cx="3362325" cy="2306492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3489100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2257755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9E00A7-71C3-4809-876E-0DBC2711F139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20955000" y="32108775"/>
+          <a:ext cx="3270025" cy="2000580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3099461</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2391266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2BD82D-43E5-4957-ABEB-8AB837561C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24593551" y="32004000"/>
+          <a:ext cx="2813710" cy="2238866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3983481</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2419740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29999206-1D41-4D77-86CB-397EE4516ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325476" y="34499550"/>
+          <a:ext cx="3869180" cy="2267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3914775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2670739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B345FA2B-1E2D-438F-8E78-F49A7CE2DCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17440275" y="34490025"/>
+          <a:ext cx="3705225" cy="2527864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3721338</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2495550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4272CB2B-6183-432F-9119-F38E994DA203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21631275" y="34470975"/>
+          <a:ext cx="3549888" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3267076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2339055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADF0F2-6D36-4DD3-BD30-84DAC4773737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25460326" y="34423350"/>
+          <a:ext cx="3124200" cy="2262855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3826157</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2043201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C337DB44-811F-4E34-87C7-FF0E05A272D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="37671375"/>
+          <a:ext cx="3426107" cy="1595526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>379521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3600450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2362554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E776E2B0-E774-4654-B44A-C9FF825482E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17897475" y="37603221"/>
+          <a:ext cx="2933700" cy="1983033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>389885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3476625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2143421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E9D5D6-34BA-45EC-A281-D4027222826D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21736050" y="37613585"/>
+          <a:ext cx="3200400" cy="1753536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3283860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2324101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A61F43-FC61-41B8-88F8-E2EA9C105C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25555576" y="37414201"/>
+          <a:ext cx="3045734" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3820033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2248196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBAFBD1-76C3-4041-A349-0D83A31174D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13392150" y="39909750"/>
+          <a:ext cx="3639058" cy="2124371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3857624</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2215071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E796F83B-4D20-497D-B654-F74E8BBB6C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17716500" y="39814500"/>
+          <a:ext cx="3371849" cy="2186496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3705697</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2248187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAB42A6-3CAE-43A6-8EC8-222849B9E9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21783675" y="39976425"/>
+          <a:ext cx="3381847" cy="2057687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3181350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2136916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95596933-EB49-497E-82FA-EC046883E0D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25955625" y="39871650"/>
+          <a:ext cx="2543175" cy="2051191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>204994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C115FE4D-7F12-40B8-BC31-1DA8FE2EC1C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25488900" y="42324544"/>
+          <a:ext cx="3457575" cy="2500491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3477097</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2305340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77147831-165A-4B97-80D2-AAEB7F0315DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21555075" y="42348150"/>
+          <a:ext cx="3381847" cy="2076740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3905757</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2619723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9EC811-0E20-40F2-880F-67FEDECEE29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17506950" y="42243375"/>
+          <a:ext cx="3629532" cy="2495898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3952874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2643927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBDC7A9-7226-4760-AC29-29FDE01428F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13439774" y="42262425"/>
+          <a:ext cx="3724275" cy="2501052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3457994</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2305345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422B7ABE-F2D6-4446-9183-CAACF6405935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13668375" y="45015150"/>
+          <a:ext cx="3000794" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3667126</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2349569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF908D6-164C-40C1-BAFD-BCE6166B8956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17811751" y="44977050"/>
+          <a:ext cx="3086100" cy="2197169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3600917</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2410145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA356CFA-5B61-4818-A793-878B8B288D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21717000" y="44938950"/>
+          <a:ext cx="3343742" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3819525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2238725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18BC3FD-3B67-4199-9CCD-FCC1801A9151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401675" y="47664920"/>
+          <a:ext cx="3629025" cy="2017830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3200400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2390775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26247A5-4A2C-4FB7-B74D-7D1BBA9066EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18135600" y="47539275"/>
+          <a:ext cx="2295525" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2390775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D85D9D3-76A3-4DEB-A33A-DEA082A88270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21859875" y="47539275"/>
+          <a:ext cx="2295525" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3296053</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2467287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6051CFD-0074-4368-A783-76C90696FA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13620750" y="50215800"/>
+          <a:ext cx="2886478" cy="2238687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3257856</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2400574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5417388A-1825-4123-8A90-3A98999E57AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18297525" y="50425350"/>
+          <a:ext cx="2191056" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3724752</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2581619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0360031-45F7-40A7-AAE0-FB592C3BD7D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21764625" y="50101500"/>
+          <a:ext cx="3419952" cy="2467319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2340044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBB5287-9479-442A-BFB6-A40ACA0946B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25622250" y="44967525"/>
+          <a:ext cx="3086100" cy="2197169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3448050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2218294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC03329-9AF9-44FF-9DC6-B4170EA59EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25755601" y="47786925"/>
+          <a:ext cx="3009899" cy="1875394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2934006</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2295799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD10579E-6E6D-442F-9227-9A401BD455D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26060400" y="50320575"/>
+          <a:ext cx="2191056" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,289 +4580,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="74.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="57" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:9" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:9" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:9" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:9" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:5" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="1:5" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="1:5" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+    <row r="21" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1132,273 +4953,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>82</v>
       </c>
     </row>
